--- a/allResults/allPerformance.xlsx
+++ b/allResults/allPerformance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/908232a7ec8e8e09/Desktop/algo_trading_and_ML/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janeydong/Desktop/algo_trading_and_ML/allResults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{1C4B12C3-129A-4530-BFE5-AFB3C55DAAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B73A4876-8B47-479A-B007-084078BF3EF9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673D1BD7-0CAC-3740-B02B-494020029B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E8AFDC41-AB57-47A2-98E3-5AB367AEEA61}"/>
+    <workbookView xWindow="-14280" yWindow="-22620" windowWidth="23260" windowHeight="20280" activeTab="3" xr2:uid="{E8AFDC41-AB57-47A2-98E3-5AB367AEEA61}"/>
   </bookViews>
   <sheets>
     <sheet name="BTC-USD" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="104">
   <si>
     <t>Statistic</t>
   </si>
@@ -339,13 +339,28 @@
   </si>
   <si>
     <t>$8,274.27</t>
+  </si>
+  <si>
+    <t>ANN</t>
+  </si>
+  <si>
+    <t>Strategy Results</t>
+  </si>
+  <si>
+    <t>Neural Network Results</t>
+  </si>
+  <si>
+    <t>Random Forest Model</t>
+  </si>
+  <si>
+    <t>27-10-2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,13 +368,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -374,12 +409,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -405,13 +458,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>167935</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -447,15 +500,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>60622</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -493,13 +546,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>854065</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>175544</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -535,15 +588,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>861060</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>114550</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -586,13 +639,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>145075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -628,15 +681,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>274726</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>160315</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -674,13 +727,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>823583</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>152682</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -716,15 +769,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>830580</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>8043</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>152683</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -767,13 +820,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>84110</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -809,15 +862,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>358555</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -855,13 +908,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>831201</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>99342</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -897,15 +950,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>15663</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>84101</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -939,6 +992,67 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3BB951D-8997-B545-474D-57A199A99B76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13360400" y="9906000"/>
+          <a:ext cx="12065000" cy="8255000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -948,13 +1062,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>91733</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -990,15 +1104,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>163551</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1036,13 +1150,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>923930</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1078,15 +1192,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>929640</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>12541</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1129,13 +1243,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>106973</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1171,15 +1285,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>45721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>383980</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>7621</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1217,13 +1331,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>967344</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1259,15 +1373,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>982980</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>177920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1310,13 +1424,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>30783</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1352,15 +1466,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1264920</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>350935</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>106981</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1398,13 +1512,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>800721</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>167923</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1440,15 +1554,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>815340</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>2235</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1491,13 +1605,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>7917</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1533,15 +1647,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>165740</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1579,13 +1693,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>883920</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>3384</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1621,15 +1735,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>891540</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>182879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>2444</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1672,13 +1786,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>145078</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1714,15 +1828,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>414711</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1760,13 +1874,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>883920</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>18819</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1802,15 +1916,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>899160</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>12502</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1845,10 +1959,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2148,630 +2258,729 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08EB97B-CE96-4022-906C-4ECE4CCFC2BC}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="10" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
+    <col min="4" max="7" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="11" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="I1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="M1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="M2" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="M3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="M4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M6" s="3">
+        <v>12831.44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>755</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D8" s="1">
         <v>750</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E8" s="1">
         <v>739</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F8" s="1">
         <v>742</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G8" s="1">
         <v>464</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I8" s="1">
         <v>756</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J8" s="1">
         <v>756</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K8" s="1">
         <v>756</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="M8" s="1">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>389</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D9" s="1">
         <v>372</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E9" s="1">
         <v>364</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F9" s="1">
         <v>380</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G9" s="1">
         <v>232</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I9" s="1">
         <v>386</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J9" s="1">
         <v>380</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K9" s="1">
         <v>380</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="M9" s="1">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>366</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D10" s="1">
         <v>378</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E10" s="1">
         <v>375</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F10" s="1">
         <v>362</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G10" s="1">
         <v>232</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I10" s="1">
         <v>370</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J10" s="1">
         <v>376</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K10" s="1">
         <v>376</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="M10" s="1">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <v>0.51519999999999999</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
         <v>0.496</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E11" s="2">
         <v>0.49259999999999998</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F11" s="2">
         <v>0.5121</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G11" s="2">
         <v>0.5</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I11" s="2">
         <v>0.51060000000000005</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J11" s="2">
         <v>0.50260000000000005</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K11" s="2">
         <v>0.50260000000000005</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="M11" s="2">
+        <v>0.52249999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
         <v>0.48480000000000001</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
         <v>0.504</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E12" s="2">
         <v>0.50739999999999996</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F12" s="2">
         <v>0.4879</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G12" s="2">
         <v>0.5</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I12" s="2">
         <v>0.4894</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J12" s="2">
         <v>0.49740000000000001</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K12" s="2">
         <v>0.49740000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="M12" s="2">
+        <v>0.47749999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
         <v>2.8500000000000001E-2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E13" s="2">
         <v>2.6499999999999999E-2</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F13" s="2">
         <v>2.86E-2</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G13" s="2">
         <v>2.53E-2</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I13" s="2">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J13" s="2">
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K13" s="2">
         <v>2.6200000000000001E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="M13" s="2">
+        <v>2.7099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <v>-2.6499999999999999E-2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
         <v>-2.5999999999999999E-2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E14" s="2">
         <v>-2.8400000000000002E-2</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F14" s="2">
         <v>-2.5600000000000001E-2</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G14" s="2">
         <v>-3.04E-2</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I14" s="2">
         <v>-2.8500000000000001E-2</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J14" s="2">
         <v>-2.7199999999999998E-2</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K14" s="2">
         <v>-2.8299999999999999E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M14" s="2">
+        <v>-2.7400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="2">
         <v>0.1875</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
         <v>0.1875</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E16" s="2">
         <v>0.15970000000000001</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F16" s="2">
         <v>0.1875</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G16" s="2">
         <v>0.1328</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I16" s="2">
         <v>0.15970000000000001</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J16" s="2">
         <v>0.1875</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K16" s="2">
         <v>0.13320000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="M16" s="4">
+        <v>0.1454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2">
         <v>-0.15970000000000001</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
         <v>-0.15970000000000001</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E17" s="2">
         <v>-0.1875</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F17" s="2">
         <v>-0.1454</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G17" s="2">
         <v>-0.15970000000000001</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I17" s="2">
         <v>-0.1875</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J17" s="2">
         <v>-0.15970000000000001</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K17" s="2">
         <v>-0.1875</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="M17" s="4">
+        <v>-0.1875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="2">
         <v>-0.84309999999999996</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
         <v>-0.66710000000000003</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E18" s="2">
         <v>-0.90329999999999999</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F18" s="2">
         <v>-0.77969999999999995</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G18" s="2">
         <v>-0.80720000000000003</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I18" s="2">
         <v>-0.88049999999999995</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J18" s="2">
         <v>-0.81120000000000003</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K18" s="2">
         <v>-0.83399999999999996</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="M18" s="4">
+        <v>-0.53259999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="5">
         <v>0.37519999999999998</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2">
         <v>0.11609999999999999</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E19" s="2">
         <v>-0.52510000000000001</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F19" s="5">
         <v>0.69130000000000003</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G19" s="2">
         <v>-0.52529999999999999</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I19" s="2">
         <v>-0.40760000000000002</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J19" s="2">
         <v>-0.16639999999999999</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K19" s="2">
         <v>-0.4511</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="M19" s="6">
+        <v>0.12809999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20" s="2">
         <v>0.60219999999999996</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
         <v>0.6018</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E20" s="2">
         <v>0.60309999999999997</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F20" s="2">
         <v>0.59470000000000001</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G20" s="2">
         <v>0.47939999999999999</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I20" s="2">
         <v>0.60540000000000005</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J20" s="2">
         <v>0.60450000000000004</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K20" s="2">
         <v>0.60660000000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="M20" s="4">
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="9">
         <v>0.61</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D21" s="1">
         <v>0.18</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E21" s="1">
         <v>-0.89</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F21" s="9">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G21" s="1">
         <v>-1.1200000000000001</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I21" s="1">
         <v>-0.69</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J21" s="1">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K21" s="1">
         <v>-0.76</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="M21" s="9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <v>1</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D22" s="1">
         <v>0</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E22" s="1">
         <v>-0.99</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F22" s="1">
         <v>-0.08</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G22" s="1">
         <v>0.02</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I22" s="1">
         <v>-0.66</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J22" s="1">
         <v>0.43</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K22" s="1">
         <v>-0.2</v>
       </c>
+      <c r="M22" s="1">
+        <v>0.32300000000000001</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2779,630 +2988,728 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EAE802-5F17-4FA7-B0D5-61E196B5C85B}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="10" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
+    <col min="4" max="7" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="11" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="I1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="M1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="M2" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="M3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="M4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="M5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M6" s="3">
+        <v>2220.16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>989</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D8" s="1">
         <v>987</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E8" s="1">
         <v>693</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F8" s="1">
         <v>958</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G8" s="1">
         <v>559</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I8" s="1">
         <v>990</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J8" s="1">
         <v>990</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K8" s="1">
         <v>990</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="M8" s="1">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>545</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D9" s="1">
         <v>499</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E9" s="1">
         <v>388</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F9" s="1">
         <v>498</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G9" s="1">
         <v>261</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I9" s="1">
         <v>497</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J9" s="1">
         <v>516</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K9" s="1">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="M9" s="1">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>438</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D10" s="1">
         <v>482</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E10" s="1">
         <v>300</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F10" s="1">
         <v>454</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G10" s="1">
         <v>293</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I10" s="1">
         <v>487</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J10" s="1">
         <v>468</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K10" s="1">
         <v>484</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="M10" s="1">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <v>0.55110000000000003</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
         <v>0.50560000000000005</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E11" s="2">
         <v>0.55989999999999995</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F11" s="2">
         <v>0.51980000000000004</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G11" s="2">
         <v>0.46689999999999998</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I11" s="2">
         <v>0.502</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J11" s="2">
         <v>0.5212</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K11" s="2">
         <v>0.50509999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="M11" s="2">
+        <v>0.50609999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
         <v>0.44290000000000002</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
         <v>0.48830000000000001</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E12" s="2">
         <v>0.43290000000000001</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F12" s="2">
         <v>0.47389999999999999</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G12" s="2">
         <v>0.52410000000000001</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I12" s="2">
         <v>0.4919</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J12" s="2">
         <v>0.47270000000000001</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K12" s="2">
         <v>0.4889</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="M12" s="2">
+        <v>0.4879</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
         <v>2.1299999999999999E-2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E13" s="2">
         <v>2.4299999999999999E-2</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F13" s="2">
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G13" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I13" s="2">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J13" s="2">
         <v>2.23E-2</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K13" s="2">
         <v>2.23E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="M13" s="2">
+        <v>2.1499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <v>-2.3800000000000002E-2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
         <v>-2.2800000000000001E-2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E14" s="2">
         <v>-2.7099999999999999E-2</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F14" s="2">
         <v>-2.1299999999999999E-2</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G14" s="2">
         <v>-2.4299999999999999E-2</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I14" s="2">
         <v>-2.1899999999999999E-2</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J14" s="2">
         <v>-2.29E-2</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K14" s="2">
         <v>-2.29E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M14" s="2">
+        <v>-2.3699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="2">
         <v>0.37659999999999999</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
         <v>0.24590000000000001</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E16" s="2">
         <v>0.37659999999999999</v>
       </c>
-      <c r="E15" s="2">
-        <v>0.4521</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="F16" s="2">
+        <v>-0.37659999999999999</v>
+      </c>
+      <c r="G16" s="2">
         <v>0.37659999999999999</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I16" s="2">
         <v>0.37659999999999999</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J16" s="2">
         <v>0.37659999999999999</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K16" s="2">
         <v>0.37659999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="M16" s="2">
+        <v>0.37659999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2">
         <v>-0.4521</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
         <v>-0.4521</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E17" s="2">
         <v>-0.4521</v>
       </c>
-      <c r="E16" s="2">
-        <v>-0.37659999999999999</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="F17" s="2">
         <v>-0.4521</v>
       </c>
-      <c r="H16" s="2">
+      <c r="G17" s="2">
         <v>-0.4521</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I17" s="2">
         <v>-0.4521</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J17" s="2">
         <v>-0.4521</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="K17" s="2">
+        <v>-0.4521</v>
+      </c>
+      <c r="M17" s="2">
+        <v>-0.4521</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="2">
         <v>-0.91910000000000003</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
         <v>-0.80730000000000002</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E18" s="2">
         <v>-0.91910000000000003</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F18" s="2">
         <v>-0.68559999999999999</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G18" s="2">
         <v>-0.8236</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I18" s="2">
         <v>-0.79820000000000002</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J18" s="2">
         <v>-0.80020000000000002</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K18" s="2">
         <v>-0.78920000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="M18" s="4">
+        <v>-0.93189999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="5">
         <v>0.14119999999999999</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2">
         <v>-0.24590000000000001</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E19" s="5">
         <v>0.14949999999999999</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F19" s="5">
         <v>1.84E-2</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G19" s="2">
         <v>-0.27139999999999997</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I19" s="2">
         <v>1.29E-2</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J19" s="2">
         <v>-1.7100000000000001E-2</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K19" s="2">
         <v>-0.17929999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="M19" s="4">
+        <v>-0.31859999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20" s="2">
         <v>0.65959999999999996</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
         <v>0.62809999999999999</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E20" s="2">
         <v>0.63</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F20" s="2">
         <v>0.57869999999999999</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G20" s="2">
         <v>0.58960000000000001</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I20" s="2">
         <v>0.65780000000000005</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J20" s="2">
         <v>0.67120000000000002</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K20" s="2">
         <v>0.65920000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="M20" s="4">
+        <v>0.66849999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="9">
         <v>0.2</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D21" s="1">
         <v>-0.41</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E21" s="9">
         <v>0.22</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F21" s="9">
         <v>0.01</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G21" s="1">
         <v>-0.48</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I21" s="10">
         <v>0</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J21" s="1">
         <v>-0.04</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K21" s="1">
         <v>-0.28999999999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="M21" s="1">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <v>1</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D22" s="1">
         <v>-0.1</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E22" s="1">
         <v>0.9</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F22" s="1">
         <v>-0.45</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G22" s="1">
         <v>0.62</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I22" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J22" s="1">
         <v>-0.03</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K22" s="1">
         <v>0.41</v>
       </c>
+      <c r="M22" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3410,629 +3717,728 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E4364E-32C7-4BCC-A1C3-4D825C5D1F24}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
+    <col min="4" max="7" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="M1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="M2" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="M3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="M4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="M5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>17337.080000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>460</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D8" s="1">
         <v>457</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E8" s="1">
         <v>450</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F8" s="1">
         <v>449</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G8" s="1">
         <v>293</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I8" s="1">
         <v>461</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J8" s="1">
         <v>461</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K8" s="1">
         <v>461</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="M8" s="1">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>226</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D9" s="1">
         <v>214</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E9" s="1">
         <v>233</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F9" s="1">
         <v>223</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G9" s="1">
         <v>147</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I9" s="1">
         <v>229</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J9" s="1">
         <v>235</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K9" s="1">
         <v>217</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="M9" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>234</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D10" s="1">
         <v>243</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E10" s="1">
         <v>217</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F10" s="1">
         <v>226</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G10" s="1">
         <v>146</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I10" s="1">
         <v>232</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J10" s="1">
         <v>226</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K10" s="1">
         <v>244</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="M10" s="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <v>0.49130000000000001</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
         <v>0.46829999999999999</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E11" s="2">
         <v>0.51780000000000004</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F11" s="2">
         <v>0.49669999999999997</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G11" s="2">
         <v>0.50170000000000003</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I11" s="2">
         <v>0.49669999999999997</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J11" s="2">
         <v>0.50980000000000003</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K11" s="2">
         <v>0.47070000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="M11" s="4">
+        <v>0.49890000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
         <v>0.50870000000000004</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
         <v>0.53169999999999995</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E12" s="2">
         <v>0.48220000000000002</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F12" s="2">
         <v>0.50329999999999997</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G12" s="2">
         <v>0.49830000000000002</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I12" s="2">
         <v>0.50329999999999997</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J12" s="2">
         <v>0.49020000000000002</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K12" s="2">
         <v>0.52929999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="M12" s="4">
+        <v>0.50109999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
         <v>3.5700000000000003E-2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E13" s="2">
         <v>3.2300000000000002E-2</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F13" s="2">
         <v>3.5799999999999998E-2</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G13" s="2">
         <v>2.9600000000000001E-2</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I13" s="2">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J13" s="2">
         <v>3.09E-2</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K13" s="2">
         <v>3.3300000000000003E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="M13" s="4">
+        <v>3.5299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <v>-3.2399999999999998E-2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
         <v>-3.1E-2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E14" s="2">
         <v>-3.3500000000000002E-2</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F14" s="2">
         <v>-3.0200000000000001E-2</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G14" s="2">
         <v>-3.6900000000000002E-2</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I14" s="2">
         <v>-3.2399999999999998E-2</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J14" s="2">
         <v>-3.5200000000000002E-2</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K14" s="2">
         <v>-3.2800000000000003E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M14" s="4">
+        <v>-3.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="2">
         <v>0.17929999999999999</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
         <v>0.17929999999999999</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E16" s="2">
         <v>0.16650000000000001</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F16" s="2">
         <v>0.17929999999999999</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G16" s="2">
         <v>0.13489999999999999</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I16" s="2">
         <v>0.17929999999999999</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J16" s="2">
         <v>0.1348</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K16" s="2">
         <v>0.17929999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="M16" s="2">
+        <v>0.17929999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2">
         <v>-0.16650000000000001</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
         <v>-0.16650000000000001</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E17" s="2">
         <v>-0.17929999999999999</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F17" s="2">
         <v>-0.13489999999999999</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G17" s="2">
         <v>-0.17929999999999999</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I17" s="2">
         <v>-0.16650000000000001</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J17" s="2">
         <v>-0.17929999999999999</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K17" s="2">
         <v>-0.16650000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="M17" s="4">
+        <v>-0.1477</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="2">
         <v>-0.79349999999999998</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
         <v>-0.72499999999999998</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E18" s="2">
         <v>-0.68820000000000003</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F18" s="2">
         <v>-0.71230000000000004</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G18" s="2">
         <v>-0.80610000000000004</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I18" s="2">
         <v>-0.6623</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J18" s="2">
         <v>-0.79200000000000004</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K18" s="2">
         <v>-0.8931</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="M18" s="4">
+        <v>-0.74609999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="5">
         <v>-0.25950000000000001</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2">
         <v>-0.2298</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E19" s="2">
         <v>-0.13150000000000001</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F19" s="5">
         <v>0.7923</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G19" s="2">
         <v>-0.65839999999999999</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I19" s="2">
         <v>-0.1759</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J19" s="2">
         <v>-0.59960000000000002</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K19" s="2">
         <v>-0.61850000000000005</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="M19" s="6">
+        <v>0.54749999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20" s="2">
         <v>0.70299999999999996</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
         <v>0.7</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E20" s="2">
         <v>0.6925</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F20" s="2">
         <v>0.6845</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G20" s="2">
         <v>0.58799999999999997</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I20" s="2">
         <v>0.70169999999999999</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J20" s="2">
         <v>0.7087</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K20" s="2">
         <v>0.70230000000000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="M20" s="4">
+        <v>0.69589999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="9">
         <v>-0.38</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D21" s="1">
         <v>-0.34</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E21" s="1">
         <v>-0.2</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F21" s="9">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G21" s="1">
         <v>-1.1399999999999999</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I21" s="1">
         <v>-0.26</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J21" s="1">
         <v>-0.86</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K21" s="1">
         <v>-0.89</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="M21" s="9">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <v>1</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D22" s="1">
         <v>0</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E22" s="1">
         <v>-0.97</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F22" s="1">
         <v>-0.16</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G22" s="1">
         <v>0.11</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I22" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J22" s="1">
         <v>0.12</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K22" s="1">
         <v>0.43</v>
       </c>
+      <c r="M22" s="1">
+        <v>1E-3</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4040,631 +4446,730 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB1B0C1-2FFC-42C3-9D06-681E14956EA9}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L58" sqref="L58"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="10" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
+    <col min="4" max="7" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="11" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" style="1"/>
+    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="I1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1"/>
+      <c r="M1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="M2" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="M3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="M4" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="M5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>8824.27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>1027</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D8" s="1">
         <v>1027</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E8" s="1">
         <v>703</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F8" s="1">
         <v>1027</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G8" s="1">
         <v>534</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I8" s="1">
         <v>1028</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J8" s="1">
         <v>1028</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K8" s="1">
         <v>1028</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="M8" s="1">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>512</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D9" s="1">
         <v>493</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E9" s="1">
         <v>352</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F9" s="1">
         <v>487</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G9" s="1">
         <v>281</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I9" s="1">
         <v>534</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J9" s="1">
         <v>527</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K9" s="1">
         <v>519</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="M9" s="1">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>511</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D10" s="1">
         <v>530</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E10" s="1">
         <v>348</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F10" s="1">
         <v>536</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G10" s="1">
         <v>250</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I10" s="1">
         <v>490</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J10" s="1">
         <v>497</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K10" s="1">
         <v>505</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="M10" s="1">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <v>0.4985</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
         <v>0.48</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E11" s="2">
         <v>0.50070000000000003</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F11" s="2">
         <v>0.47420000000000001</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G11" s="2">
         <v>0.5262</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I11" s="2">
         <v>0.51949999999999996</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J11" s="2">
         <v>0.51259999999999994</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K11" s="2">
         <v>0.50490000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="M11" s="4">
+        <v>0.47860000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
         <v>0.49759999999999999</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
         <v>0.5161</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E12" s="2">
         <v>0.495</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F12" s="2">
         <v>0.52190000000000003</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G12" s="2">
         <v>0.46820000000000001</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I12" s="2">
         <v>0.47670000000000001</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J12" s="2">
         <v>0.48349999999999999</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K12" s="2">
         <v>0.49120000000000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="M12" s="4">
+        <v>0.51749999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
         <v>3.3E-3</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E13" s="2">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F13" s="2">
         <v>3.3E-3</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G13" s="2">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I13" s="2">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J13" s="2">
         <v>3.3E-3</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K13" s="2">
         <v>3.5000000000000001E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="M13" s="4">
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <v>-3.3999999999999998E-3</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
         <v>-3.3E-3</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E14" s="2">
         <v>-3.8E-3</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F14" s="2">
         <v>-3.2000000000000002E-3</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G14" s="2">
         <v>-3.2000000000000002E-3</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I14" s="2">
         <v>-3.3999999999999998E-3</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J14" s="2">
         <v>-3.3E-3</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K14" s="2">
         <v>-3.0999999999999999E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M14" s="4">
+        <v>-3.3E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="2">
         <v>1.61E-2</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
         <v>2.7799999999999998E-2</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E16" s="2">
         <v>1.61E-2</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F16" s="2">
         <v>2.7799999999999998E-2</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G16" s="2">
         <v>1.61E-2</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I16" s="2">
         <v>2.7799999999999998E-2</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J16" s="2">
         <v>2.7799999999999998E-2</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K16" s="2">
         <v>2.7799999999999998E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="M16" s="4">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2">
         <v>-2.7799999999999998E-2</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
         <v>-1.61E-2</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E17" s="2">
         <v>-2.7799999999999998E-2</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F17" s="2">
         <v>-1.61E-2</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G17" s="2">
         <v>-1.7399999999999999E-2</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I17" s="2">
         <v>-1.6799999999999999E-2</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J17" s="2">
         <v>-1.7399999999999999E-2</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K17" s="2">
         <v>-1.55E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="M17" s="4">
+        <v>-2.7799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="2">
         <v>-0.22239999999999999</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
         <v>-0.18859999999999999</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E18" s="2">
         <v>-0.22239999999999999</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F18" s="2">
         <v>-0.1875</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G18" s="2">
         <v>-0.151</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I18" s="2">
         <v>-0.20480000000000001</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J18" s="2">
         <v>-0.1565</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K18" s="2">
         <v>-0.31240000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="M18" s="4">
+        <v>-0.16539999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="5">
         <v>-3.32E-2</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2">
         <v>-3.6499999999999998E-2</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E19" s="2">
         <v>-2.0400000000000001E-2</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F19" s="2">
         <v>-3.2399999999999998E-2</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G19" s="5">
         <v>4.24E-2</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I19" s="2">
         <v>1.84E-2</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J19" s="2">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K19" s="5">
         <v>6.6400000000000001E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="M19" s="4">
+        <v>-3.1300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20" s="2">
         <v>7.0199999999999999E-2</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
         <v>7.0099999999999996E-2</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E20" s="2">
         <v>6.4199999999999993E-2</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F20" s="2">
         <v>7.0099999999999996E-2</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G20" s="2">
         <v>4.9799999999999997E-2</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I20" s="2">
         <v>7.0199999999999999E-2</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J20" s="2">
         <v>7.0199999999999999E-2</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K20" s="2">
         <v>7.0099999999999996E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="M20" s="4">
+        <v>7.0300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="9">
         <v>-0.62</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D21" s="1">
         <v>-0.66</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E21" s="1">
         <v>-0.47</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F21" s="1">
         <v>-0.61</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G21" s="9">
         <v>0.65</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I21" s="1">
         <v>0.12</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J21" s="1">
         <v>0.25</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K21" s="9">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="M21" s="1">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <v>1</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D22" s="1">
         <v>-0.03</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E22" s="1">
         <v>0.84</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F22" s="1">
         <v>-0.24</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G22" s="1">
         <v>0.12</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I22" s="1">
         <v>0.01</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J22" s="1">
         <v>-0.15</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K22" s="1">
         <v>-0.02</v>
       </c>
+      <c r="M22" s="1">
+        <v>-3.0000000000000001E-3</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4672,629 +5177,728 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B58870B-EA9E-4E05-97A8-E581E96DB4FB}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
+    <col min="4" max="7" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="M1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="M2" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="M3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="M4" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="M5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>12053.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>1028</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D8" s="1">
         <v>1028</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E8" s="1">
         <v>997</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F8" s="1">
         <v>1028</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G8" s="1">
         <v>600</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I8" s="1">
         <v>1029</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J8" s="1">
         <v>1029</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K8" s="1">
         <v>1029</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="M8" s="1">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>525</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D9" s="1">
         <v>510</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E9" s="1">
         <v>513</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F9" s="1">
         <v>521</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G9" s="1">
         <v>306</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I9" s="1">
         <v>495</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J9" s="1">
         <v>483</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K9" s="1">
         <v>545</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="M9" s="1">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>501</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D10" s="1">
         <v>516</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E10" s="1">
         <v>482</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F10" s="1">
         <v>505</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G10" s="1">
         <v>292</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I10" s="1">
         <v>532</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J10" s="1">
         <v>544</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K10" s="1">
         <v>482</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="M10" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <v>0.51070000000000004</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
         <v>0.49609999999999999</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E11" s="2">
         <v>0.51449999999999996</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F11" s="2">
         <v>0.50680000000000003</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G11" s="2">
         <v>0.51</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I11" s="2">
         <v>0.48099999999999998</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J11" s="2">
         <v>0.46939999999999998</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K11" s="2">
         <v>0.52959999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="M11" s="4">
+        <v>0.5121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
         <v>0.4874</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
         <v>0.50190000000000001</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E12" s="2">
         <v>0.4834</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F12" s="2">
         <v>0.49120000000000003</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G12" s="2">
         <v>0.48670000000000002</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I12" s="2">
         <v>0.51700000000000002</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J12" s="2">
         <v>0.52869999999999995</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K12" s="2">
         <v>0.46839999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="M12" s="4">
+        <v>0.4859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E13" s="2">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F13" s="2">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G13" s="2">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I13" s="2">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J13" s="2">
         <v>4.3E-3</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K13" s="2">
         <v>4.4000000000000003E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="M13" s="4">
+        <v>4.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <v>-4.4000000000000003E-3</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
         <v>-4.3E-3</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E14" s="2">
         <v>-4.4000000000000003E-3</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F14" s="2">
         <v>-4.4999999999999997E-3</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G14" s="2">
         <v>-4.4999999999999997E-3</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I14" s="2">
         <v>-4.5999999999999999E-3</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J14" s="2">
         <v>-4.7999999999999996E-3</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K14" s="2">
         <v>-4.7000000000000002E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M14" s="2">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
         <v>3.8399999999999997E-2</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E16" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F16" s="2">
         <v>3.8399999999999997E-2</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G16" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I16" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J16" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K16" s="2">
         <v>3.2000000000000001E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="M16" s="4">
+        <v>3.8399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2">
         <v>-3.8399999999999997E-2</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
         <v>-3.1E-2</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E17" s="2">
         <v>-3.3399999999999999E-2</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F17" s="2">
         <v>-3.1E-2</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G17" s="2">
         <v>-3.8399999999999997E-2</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I17" s="2">
         <v>-3.8399999999999997E-2</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J17" s="2">
         <v>-3.8399999999999997E-2</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K17" s="2">
         <v>-3.8399999999999997E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="M17" s="4">
+        <v>-3.3399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="2">
         <v>-0.26500000000000001</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
         <v>-0.20319999999999999</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E18" s="2">
         <v>-0.26500000000000001</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F18" s="2">
         <v>-0.18440000000000001</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G18" s="2">
         <v>-0.2407</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I18" s="2">
         <v>-0.33750000000000002</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J18" s="2">
         <v>-0.46850000000000003</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K18" s="2">
         <v>-0.30030000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="M18" s="4">
+        <v>-0.22550000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="5">
         <v>4.4900000000000002E-2</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2">
         <v>3.9E-2</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E19" s="5">
         <v>6.3500000000000001E-2</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F19" s="2">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G19" s="2">
         <v>2.3099999999999999E-2</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I19" s="2">
         <v>-7.0599999999999996E-2</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J19" s="2">
         <v>-0.1343</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K19" s="2">
         <v>3.6999999999999998E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="M19" s="6">
+        <v>4.8599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20" s="2">
         <v>0.1011</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
         <v>0.1009</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E20" s="2">
         <v>9.8400000000000001E-2</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F20" s="2">
         <v>0.10100000000000001</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G20" s="2">
         <v>7.85E-2</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I20" s="2">
         <v>0.1012</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J20" s="2">
         <v>0.10100000000000001</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K20" s="2">
         <v>0.1013</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="M20" s="4">
+        <v>0.1011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="9">
         <v>0.35</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D21" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E21" s="9">
         <v>0.54</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F21" s="1">
         <v>0.02</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G21" s="1">
         <v>0.17</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I21" s="1">
         <v>-0.8</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J21" s="1">
         <v>-1.43</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K21" s="1">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="M21" s="9">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <v>1</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D22" s="1">
         <v>-0.16</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E22" s="1">
         <v>0.95</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F22" s="1">
         <v>-0.1</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G22" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I22" s="1">
         <v>0.05</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J22" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K22" s="1">
         <v>-0.06</v>
       </c>
+      <c r="M22" s="1">
+        <v>0.16900000000000001</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5302,630 +5906,728 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55266504-1E5D-4975-8FBD-9BA7F8F1269A}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L59" sqref="L59"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="10" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
+    <col min="4" max="7" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="11" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="I1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="M1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="M2" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="M3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="M4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="M5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>13109.47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>989</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D8" s="1">
         <v>988</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E8" s="1">
         <v>849</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F8" s="1">
         <v>989</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G8" s="1">
         <v>541</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I8" s="1">
         <v>990</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J8" s="1">
         <v>990</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K8" s="1">
         <v>990</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="M8" s="1">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>541</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D9" s="1">
         <v>482</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E9" s="1">
         <v>382</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F9" s="1">
         <v>483</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G9" s="1">
         <v>256</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I9" s="1">
         <v>470</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J9" s="1">
         <v>497</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K9" s="1">
         <v>498</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="M9" s="1">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>442</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D10" s="1">
         <v>500</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E10" s="1">
         <v>461</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F10" s="1">
         <v>500</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G10" s="1">
         <v>281</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I10" s="1">
         <v>514</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J10" s="1">
         <v>487</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K10" s="1">
         <v>486</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="M10" s="1">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <v>0.54700000000000004</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
         <v>0.4879</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E11" s="2">
         <v>0.44990000000000002</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F11" s="2">
         <v>0.4884</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G11" s="2">
         <v>0.47320000000000001</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I11" s="2">
         <v>0.47470000000000001</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J11" s="2">
         <v>0.502</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K11" s="2">
         <v>0.503</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="M11" s="4">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
         <v>0.44690000000000002</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
         <v>0.50609999999999999</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E12" s="2">
         <v>0.54300000000000004</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F12" s="2">
         <v>0.50560000000000005</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G12" s="2">
         <v>0.51939999999999997</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I12" s="2">
         <v>0.51919999999999999</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J12" s="2">
         <v>0.4919</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K12" s="2">
         <v>0.4909</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="M12" s="4">
+        <v>0.4899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E13" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F13" s="2">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G13" s="2">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I13" s="2">
         <v>7.6E-3</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J13" s="2">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K13" s="2">
         <v>7.1000000000000004E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="M13" s="4">
+        <v>7.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
         <v>-7.1999999999999998E-3</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E14" s="2">
         <v>-7.1000000000000004E-3</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F14" s="2">
         <v>-7.4000000000000003E-3</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G14" s="2">
         <v>-6.7999999999999996E-3</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I14" s="2">
         <v>-6.7000000000000002E-3</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J14" s="2">
         <v>-6.8999999999999999E-3</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K14" s="2">
         <v>-7.1000000000000004E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M14" s="4">
+        <v>-6.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="2">
         <v>5.9499999999999997E-2</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
         <v>4.6100000000000002E-2</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E16" s="2">
         <v>4.9799999999999997E-2</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F16" s="2">
         <v>4.6300000000000001E-2</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G16" s="2">
         <v>5.9499999999999997E-2</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I16" s="2">
         <v>4.9799999999999997E-2</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J16" s="2">
         <v>5.9499999999999997E-2</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K16" s="2">
         <v>5.5899999999999998E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="M16" s="4">
+        <v>5.5899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2">
         <v>-4.9799999999999997E-2</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
         <v>-5.9499999999999997E-2</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E17" s="2">
         <v>-5.9499999999999997E-2</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F17" s="2">
         <v>-5.9499999999999997E-2</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G17" s="2">
         <v>-3.5900000000000001E-2</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I17" s="2">
         <v>-5.9499999999999997E-2</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J17" s="2">
         <v>-4.9799999999999997E-2</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K17" s="2">
         <v>-5.9499999999999997E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="M17" s="4">
+        <v>-5.9499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="2">
         <v>-0.40960000000000002</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
         <v>-0.33760000000000001</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E18" s="2">
         <v>-0.3735</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F18" s="2">
         <v>-0.49680000000000002</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G18" s="2">
         <v>-0.2369</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I18" s="2">
         <v>-0.36749999999999999</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J18" s="2">
         <v>-0.27510000000000001</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K18" s="2">
         <v>-0.23699999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="M18" s="4">
+        <v>-0.38619999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="5">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2">
         <v>-5.96E-2</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E19" s="2">
         <v>-6.3200000000000006E-2</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F19" s="2">
         <v>-9.9599999999999994E-2</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G19" s="2">
         <v>-9.1000000000000004E-3</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I19" s="2">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J19" s="5">
         <v>7.4700000000000003E-2</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K19" s="2">
         <v>1.24E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="M19" s="6">
+        <v>7.1400000000000005E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20" s="2">
         <v>0.16059999999999999</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
         <v>0.161</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E20" s="2">
         <v>0.15540000000000001</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F20" s="2">
         <v>0.16089999999999999</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G20" s="2">
         <v>0.12</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I20" s="2">
         <v>0.16070000000000001</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J20" s="2">
         <v>0.16039999999999999</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K20" s="2">
         <v>0.16089999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="M20" s="4">
+        <v>0.16059999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="9">
         <v>0.43</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D21" s="1">
         <v>-0.43</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E21" s="1">
         <v>-0.47</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F21" s="1">
         <v>-0.68</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G21" s="1">
         <v>-0.16</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I21" s="1">
         <v>0.05</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J21" s="9">
         <v>0.4</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K21" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="M21" s="9">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <v>1</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D22" s="1">
         <v>0.06</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E22" s="1">
         <v>-0.94</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F22" s="1">
         <v>0.1</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G22" s="1">
         <v>-0.06</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I22" s="1">
         <v>-0.44</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J22" s="1">
         <v>0.21</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K22" s="1">
         <v>0.09</v>
       </c>
+      <c r="M22" s="1">
+        <v>2.3E-2</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5933,629 +6635,728 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0672FB-AE56-4851-BDB5-8A9CE0C34A47}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L58" sqref="L58"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
+    <col min="4" max="7" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="M1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="M2" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="M3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="M4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="M5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>11483.89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>988</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D8" s="1">
         <v>988</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E8" s="1">
         <v>970</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F8" s="1">
         <v>987</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G8" s="1">
         <v>523</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I8" s="1">
         <v>989</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J8" s="1">
         <v>989</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K8" s="1">
         <v>989</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="M8" s="1">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>518</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D9" s="1">
         <v>499</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E9" s="1">
         <v>514</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F9" s="1">
         <v>495</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G9" s="1">
         <v>272</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I9" s="1">
         <v>508</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J9" s="1">
         <v>512</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K9" s="1">
         <v>530</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="M9" s="1">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>469</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D10" s="1">
         <v>488</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E10" s="1">
         <v>455</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F10" s="1">
         <v>491</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G10" s="1">
         <v>251</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I10" s="1">
         <v>480</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J10" s="1">
         <v>476</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K10" s="1">
         <v>458</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="M10" s="1">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <v>0.52429999999999999</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
         <v>0.50509999999999999</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E11" s="2">
         <v>0.52990000000000004</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F11" s="2">
         <v>0.50149999999999995</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G11" s="2">
         <v>0.52010000000000001</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I11" s="2">
         <v>0.51370000000000005</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J11" s="2">
         <v>0.51770000000000005</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K11" s="2">
         <v>0.53590000000000004</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="M11" s="4">
+        <v>0.51259999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
         <v>0.47470000000000001</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
         <v>0.49390000000000001</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E12" s="2">
         <v>0.46910000000000002</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F12" s="2">
         <v>0.4975</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G12" s="2">
         <v>0.47989999999999999</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I12" s="2">
         <v>0.48530000000000001</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J12" s="2">
         <v>0.48130000000000001</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K12" s="2">
         <v>0.46310000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="M12" s="4">
+        <v>0.48630000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E13" s="2">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F13" s="2">
         <v>1.24E-2</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G13" s="2">
         <v>1.41E-2</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I13" s="2">
         <v>1.24E-2</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J13" s="2">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K13" s="2">
         <v>1.2800000000000001E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="M13" s="4">
+        <v>1.2699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
         <v>-1.21E-2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E14" s="2">
         <v>-1.29E-2</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F14" s="2">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G14" s="2">
         <v>-1.44E-2</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I14" s="2">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J14" s="2">
         <v>-1.35E-2</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K14" s="2">
         <v>-1.26E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M14" s="4">
+        <v>-1.2699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="2">
         <v>9.3899999999999997E-2</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
         <v>0.14269999999999999</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E16" s="2">
         <v>9.3899999999999997E-2</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F16" s="2">
         <v>0.14269999999999999</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G16" s="2">
         <v>9.3899999999999997E-2</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I16" s="2">
         <v>9.3899999999999997E-2</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J16" s="2">
         <v>8.2400000000000001E-2</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K16" s="2">
         <v>9.3899999999999997E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="M16" s="4">
+        <v>9.3899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2">
         <v>-0.14269999999999999</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
         <v>-9.3899999999999997E-2</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E17" s="2">
         <v>-0.14269999999999999</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F17" s="2">
         <v>-9.3899999999999997E-2</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G17" s="2">
         <v>-0.14269999999999999</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I17" s="2">
         <v>-0.14269999999999999</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J17" s="2">
         <v>-0.14269999999999999</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K17" s="2">
         <v>-0.14269999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="M17" s="4">
+        <v>-0.14269999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="2">
         <v>-0.59419999999999995</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
         <v>-0.50829999999999997</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E18" s="2">
         <v>-0.59419999999999995</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F18" s="2">
         <v>-0.62309999999999999</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G18" s="2">
         <v>-0.38269999999999998</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I18" s="2">
         <v>-0.43149999999999999</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J18" s="2">
         <v>-0.59640000000000004</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K18" s="2">
         <v>-0.75509999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="M18" s="4">
+        <v>-0.44350000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="5">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19" s="2"/>
+      <c r="D19" s="5">
         <v>0.16739999999999999</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E19" s="2">
         <v>0.1009</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F19" s="2">
         <v>-0.1026</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G19" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I19" s="2">
         <v>-2.41E-2</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J19" s="2">
         <v>-0.1181</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K19" s="5">
         <v>0.23080000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="M19" s="4">
+        <v>3.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20" s="2">
         <v>0.29260000000000003</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
         <v>0.28839999999999999</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E20" s="2">
         <v>0.28989999999999999</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F20" s="2">
         <v>0.28889999999999999</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G20" s="2">
         <v>0.2465</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I20" s="2">
         <v>0.29220000000000002</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J20" s="2">
         <v>0.29370000000000002</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K20" s="2">
         <v>0.29189999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="M20" s="4">
+        <v>0.29249999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="9">
         <v>0.16</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D21" s="9">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E21" s="1">
         <v>0.31</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F21" s="1">
         <v>-0.39</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G21" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I21" s="1">
         <v>-0.12</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J21" s="1">
         <v>-0.44</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K21" s="9">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="M21" s="1">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <v>1</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D22" s="1">
         <v>-0.26</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E22" s="1">
         <v>0.98</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F22" s="1">
         <v>-0.36</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G22" s="1">
         <v>0.36</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I22" s="1">
         <v>0.2</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J22" s="1">
         <v>0.4</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K22" s="1">
         <v>0.52</v>
       </c>
+      <c r="M22" s="1">
+        <v>0.46300000000000002</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6563,629 +7364,728 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FC51C6-B8ED-4DE4-946E-1B4C291E8640}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
+    <col min="4" max="7" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="M1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="M2" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="M3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="M4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="M5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>15753.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>988</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D8" s="1">
         <v>988</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E8" s="1">
         <v>970</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F8" s="1">
         <v>987</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G8" s="1">
         <v>490</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I8" s="1">
         <v>989</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J8" s="1">
         <v>989</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K8" s="1">
         <v>989</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="M8" s="1">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>538</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D9" s="1">
         <v>500</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E9" s="1">
         <v>532</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F9" s="1">
         <v>529</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G9" s="1">
         <v>246</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I9" s="1">
         <v>454</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J9" s="1">
         <v>514</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K9" s="1">
         <v>473</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="M9" s="1">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>450</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D10" s="1">
         <v>488</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E10" s="1">
         <v>438</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F10" s="1">
         <v>458</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G10" s="1">
         <v>244</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I10" s="1">
         <v>535</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J10" s="1">
         <v>475</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K10" s="1">
         <v>516</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="M10" s="1">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <v>0.54449999999999998</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
         <v>0.50609999999999999</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E11" s="2">
         <v>0.54849999999999999</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F11" s="2">
         <v>0.53600000000000003</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G11" s="2">
         <v>0.502</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I11" s="2">
         <v>0.45910000000000001</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J11" s="2">
         <v>0.51970000000000005</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K11" s="2">
         <v>0.4783</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="M11" s="4">
+        <v>0.51160000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
         <v>0.45550000000000002</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
         <v>0.49390000000000001</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E12" s="2">
         <v>0.45150000000000001</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F12" s="2">
         <v>0.46400000000000002</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G12" s="2">
         <v>0.498</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I12" s="2">
         <v>0.54100000000000004</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J12" s="2">
         <v>0.4803</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K12" s="2">
         <v>0.52170000000000005</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="M12" s="4">
+        <v>0.4884</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E13" s="2">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F13" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G13" s="2">
         <v>1.15E-2</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I13" s="2">
         <v>1.04E-2</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J13" s="2">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K13" s="2">
         <v>9.7000000000000003E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="M13" s="4">
+        <v>9.7000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <v>-9.7999999999999997E-3</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
         <v>-9.1999999999999998E-3</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E14" s="2">
         <v>-9.5999999999999992E-3</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F14" s="2">
         <v>-9.9000000000000008E-3</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G14" s="2">
         <v>-9.9000000000000008E-3</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I14" s="2">
         <v>-8.6E-3</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J14" s="2">
         <v>-9.1999999999999998E-3</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K14" s="2">
         <v>-9.1000000000000004E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M14" s="4">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="2">
         <v>9.3799999999999994E-2</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
         <v>0.1198</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E16" s="2">
         <v>9.3799999999999994E-2</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F16" s="2">
         <v>0.1198</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G16" s="2">
         <v>9.3799999999999994E-2</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I16" s="2">
         <v>0.1198</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J16" s="2">
         <v>9.3799999999999994E-2</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K16" s="2">
         <v>9.3799999999999994E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="M16" s="4">
+        <v>0.1198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2">
         <v>-0.1198</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
         <v>-9.3799999999999994E-2</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E17" s="2">
         <v>-0.1198</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F17" s="2">
         <v>-9.3799999999999994E-2</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G17" s="2">
         <v>-0.1198</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I17" s="2">
         <v>-7.0300000000000001E-2</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J17" s="2">
         <v>-0.1198</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K17" s="2">
         <v>-0.1198</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="M17" s="4">
+        <v>-9.5100000000000004E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="2">
         <v>-0.53349999999999997</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
         <v>-0.37269999999999998</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E18" s="2">
         <v>-0.53349999999999997</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F18" s="2">
         <v>-0.39800000000000002</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G18" s="2">
         <v>-0.44950000000000001</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I18" s="2">
         <v>-0.51559999999999995</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J18" s="2">
         <v>-0.4768</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K18" s="2">
         <v>-0.39689999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="M18" s="4">
+        <v>-0.53949999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="5">
         <v>9.8199999999999996E-2</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2">
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E19" s="5">
         <v>0.13569999999999999</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F19" s="2">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G19" s="2">
         <v>9.5299999999999996E-2</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I19" s="2">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J19" s="5">
         <v>0.13170000000000001</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K19" s="2">
         <v>-4.7199999999999999E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="M19" s="4">
+        <v>0.12280000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20" s="2">
         <v>0.23150000000000001</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
         <v>0.23</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E20" s="2">
         <v>0.22869999999999999</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F20" s="2">
         <v>0.23019999999999999</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G20" s="2">
         <v>0.19670000000000001</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I20" s="2">
         <v>0.22800000000000001</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J20" s="2">
         <v>0.2311</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K20" s="2">
         <v>0.2311</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="M20" s="4">
+        <v>0.22939999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="9">
         <v>0.38</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D21" s="1">
         <v>0.17</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E21" s="9">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F21" s="1">
         <v>0.09</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G21" s="1">
         <v>0.43</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I21" s="1">
         <v>-0.03</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J21" s="9">
         <v>0.53</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K21" s="1">
         <v>-0.25</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="M21" s="1">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <v>1</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D22" s="1">
         <v>-0.4</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E22" s="1">
         <v>0.98</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F22" s="1">
         <v>-0.45</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G22" s="1">
         <v>0.5</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I22" s="1">
         <v>-0.68</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J22" s="1">
         <v>0.44</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K22" s="1">
         <v>0.24</v>
       </c>
+      <c r="M22" s="1">
+        <v>0.30199999999999999</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
